--- a/biology/Médecine/Phénomène_de_Lazare/Phénomène_de_Lazare.xlsx
+++ b/biology/Médecine/Phénomène_de_Lazare/Phénomène_de_Lazare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nom%C3%A8ne_de_Lazare</t>
+          <t>Phénomène_de_Lazare</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le phénomène de Lazare est le nom donné à la récupération spontanée d’une activité circulatoire après l’arrêt de la réanimation pratiquée à la suite d'un arrêt cardiaque[1]. Ce phénomène, rare et spectaculaire, peut évoquer une « résurrection » (d'où la référence au personnage biblique de Lazare[2],[3])[4].
-Peu de cas ont été décrits mais le phénomène est attesté[5],[6]. Le phénomène pourrait être lié à une bradycardie où le cœur bat extrêmement lentement, ce qui a des conséquences délétères sur l'organisme[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le phénomène de Lazare est le nom donné à la récupération spontanée d’une activité circulatoire après l’arrêt de la réanimation pratiquée à la suite d'un arrêt cardiaque. Ce phénomène, rare et spectaculaire, peut évoquer une « résurrection » (d'où la référence au personnage biblique de Lazare,).
+Peu de cas ont été décrits mais le phénomène est attesté,. Le phénomène pourrait être lié à une bradycardie où le cœur bat extrêmement lentement, ce qui a des conséquences délétères sur l'organisme.
 </t>
         </is>
       </c>
